--- a/BFBR2/BFBR2AtomsNoBiomass_50g_v_dp_restart_new/CFD/inlet0.43Gasin/inlet.xlsx
+++ b/BFBR2/BFBR2AtomsNoBiomass_50g_v_dp_restart_new/CFD/inlet0.43Gasin/inlet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\BFBR2AtomsNoBiomass_50g_v_dp_restart_new\CFD\inlet0.43Gasin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F4703610-0519-41CA-AEB0-E460A3128BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CE8D4A54-8209-455D-8B4C-81C888D14ED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
@@ -11095,7 +11095,7 @@
   <dimension ref="A1:T671"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P1" activeCellId="1" sqref="A1:A1048576 P1:P1048576"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
